--- a/Modulo5/src/out/info_estados/Delaware.xlsx
+++ b/Modulo5/src/out/info_estados/Delaware.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
-  </si>
-  <si>
-    <t>columna_aumentada</t>
+    <t>nuevaColumna</t>
+  </si>
+  <si>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>D</t>
@@ -530,14 +536,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4981</v>
       </c>
       <c r="M2">
         <v>10001</v>
@@ -574,14 +580,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>7339</v>
       </c>
       <c r="M3">
         <v>10001</v>
@@ -618,14 +624,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>8295</v>
       </c>
       <c r="M4">
         <v>10001</v>
@@ -662,14 +668,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1670</v>
       </c>
       <c r="M5">
         <v>10001</v>
@@ -706,14 +712,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2325</v>
       </c>
       <c r="M6">
         <v>10001</v>
@@ -750,14 +756,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>25739</v>
       </c>
       <c r="M7">
         <v>10003</v>
@@ -794,14 +800,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>38581</v>
       </c>
       <c r="M8">
         <v>10003</v>
@@ -838,14 +844,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>16385</v>
       </c>
       <c r="M9">
         <v>10003</v>
@@ -882,14 +888,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>8808</v>
       </c>
       <c r="M10">
         <v>10003</v>
@@ -926,14 +932,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5879</v>
       </c>
       <c r="M11">
         <v>10003</v>
@@ -970,14 +976,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>5942</v>
       </c>
       <c r="M12">
         <v>10005</v>
@@ -1014,14 +1020,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>10033</v>
       </c>
       <c r="M13">
         <v>10005</v>
@@ -1058,14 +1064,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>17795</v>
       </c>
       <c r="M14">
         <v>10005</v>
@@ -1102,14 +1108,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3750</v>
       </c>
       <c r="M15">
         <v>10005</v>
@@ -1146,14 +1152,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2909</v>
       </c>
       <c r="M16">
         <v>10005</v>
